--- a/CP-4-Processor/control.xlsx
+++ b/CP-4-Processor/control.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://prodduke-my.sharepoint.com/personal/lr197_duke_edu/Documents/Spring 2023/ECE 350/Processor/CP-4-Processor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{9A2203CA-B1E1-B247-A569-4723C180EE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{513031A4-A071-234F-AECE-EDA27261C723}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{9A2203CA-B1E1-B247-A569-4723C180EE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3E5CC82-95CB-FD4B-9689-D8ECD676C737}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{B3E1344B-32DC-A144-8337-57BE3E1F8F53}"/>
   </bookViews>
@@ -529,7 +529,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
